--- a/medicine/Enfance/La_Grotte_Gorgone/La_Grotte_Gorgone.xlsx
+++ b/medicine/Enfance/La_Grotte_Gorgone/La_Grotte_Gorgone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Grotte Gorgone (The Grim Grotto) est le onzième tome de la série Les Désastreuses Aventures des orphelins Baudelaire de Lemony Snicket.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les orphelins Baudelaire sont récupérés par un sous-marin nommé le Queequeg (personnage de Moby Dick, les uniformes de l'équipage sont d'ailleurs décorés de l'effigie d'Herman Melville). Ils y retrouvent Phil, un ami perdu de vue et ex-collègue de la scierie Fleurbon-Laubaine. Ils font aussi la connaissance du capitaine Virlevent, doté d'un fort caractère, et de sa belle-fille Fiona, une mycologue aux lunettes triangulaires que Klaus apprécie fortement. Tous ont suivi les déboires des Baudelaire grâce à de Véritables Dépêches Communautaires. Le capitaine Virlevent, dont la devise est « celui qui hésite est perdu », est membre des V.D.C., cette mystérieuse organisation secrète dont les initiales semblent vouloir dire Volontaire de Défense de la Communauté. Virlevent révèle que cette organisation, hier vouée à faire le bien, a éclaté et que ses membres sont menacés par des ennemis plus dangereux les uns que les autres.
 Le comte Olaf, à bord d'un sous-marin en forme de poulpe, manque de capturer le Queeqeg mais un autre sous-marin, en forme de point d'interrogation, le fait fuir. Le mystère concernant ce sous-marin ne sera pas éclairci, Virlevent se contentant de dire qu'il s'agit de quelque chose de plus dangereux et de plus monstrueux qu'Olaf lui-même.
@@ -548,7 +562,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2019, la série télévisée Les Désastreuses Aventures des Orphelins Baudelaire adapte le roman dans le troisième et quatrième épisodes de la troisième saison.
 </t>
